--- a/output62.xlsx
+++ b/output62.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>¬a¬bc¬d</t>
+          <t>¬a¬b¬cd</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -452,7 +452,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>¬abc¬d</t>
+          <t>¬ab¬cd</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -489,7 +489,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>a¬cd</t>
+          <t>a¬bc</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -505,19 +505,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -526,7 +526,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>a¬bc</t>
+          <t>ac¬d</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -548,7 +548,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -557,13 +557,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ab¬c</t>
+          <t>ab¬d</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -591,16 +591,16 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>¬a¬d</t>
+          <t>¬a¬c</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -637,7 +637,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>c¬d</t>
+          <t>¬cd</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -653,10 +653,10 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -665,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
